--- a/project/sex_age_10.xlsx
+++ b/project/sex_age_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>총 인구수</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>총 인구수 올림</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -478,10 +473,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1800.642676767677</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1801</v>
+        <v>39615</v>
       </c>
     </row>
     <row r="3">
@@ -502,10 +494,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1644.812716049383</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1645</v>
+        <v>29608</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +515,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1625.912393162393</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1626</v>
+        <v>21138</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +536,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2042.257055555555</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2043</v>
+        <v>40846</v>
       </c>
     </row>
     <row r="6">
@@ -574,10 +557,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2386.24455026455</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2387</v>
+        <v>50112</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +578,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2266.497111111111</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2267</v>
+        <v>33999</v>
       </c>
     </row>
     <row r="8">
@@ -622,10 +599,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1973.674592592592</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1974</v>
+        <v>29606</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +620,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1697.115888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1698</v>
+        <v>16972</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +641,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2007.020643274854</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2008</v>
+        <v>38134</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +662,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1658.856349206349</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1659</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="12">
@@ -718,10 +683,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2263.195793650794</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2264</v>
+        <v>31685</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +704,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2318.662888888889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2319</v>
+        <v>34781</v>
       </c>
     </row>
     <row r="14">
@@ -766,10 +725,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2071.730069444445</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2072</v>
+        <v>33149</v>
       </c>
     </row>
     <row r="15">
@@ -790,10 +746,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2122.782936507936</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2123</v>
+        <v>29720</v>
       </c>
     </row>
     <row r="16">
@@ -814,10 +767,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1631.002283950617</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1632</v>
+        <v>29359</v>
       </c>
     </row>
     <row r="17">
@@ -838,10 +788,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1335.13339869281</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1336</v>
+        <v>22699</v>
       </c>
     </row>
     <row r="18">
@@ -862,10 +809,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1910.723944444444</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1911</v>
+        <v>38215</v>
       </c>
     </row>
     <row r="19">
@@ -886,10 +830,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1687.163333333333</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1688</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="20">
@@ -910,10 +851,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1643.116604938272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1644</v>
+        <v>29577</v>
       </c>
     </row>
     <row r="21">
@@ -934,10 +872,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1649.857098765432</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1650</v>
+        <v>29699</v>
       </c>
     </row>
     <row r="22">
@@ -958,10 +893,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1047.246388888889</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1048</v>
+        <v>16757</v>
       </c>
     </row>
     <row r="23">
@@ -982,10 +914,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1955.648819444444</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1956</v>
+        <v>31291</v>
       </c>
     </row>
     <row r="24">
@@ -1006,10 +935,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>841.0892156862744</v>
-      </c>
-      <c r="F24" t="n">
-        <v>842</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="25">
@@ -1030,10 +956,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>675.9422222222222</v>
-      </c>
-      <c r="F25" t="n">
-        <v>676</v>
+        <v>10140</v>
       </c>
     </row>
     <row r="26">
@@ -1054,10 +977,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1795.696597222222</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1796</v>
+        <v>28732</v>
       </c>
     </row>
     <row r="27">
@@ -1078,10 +998,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2310.369848484848</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2311</v>
+        <v>50829</v>
       </c>
     </row>
     <row r="28">
@@ -1102,10 +1019,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1999.152901234568</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2000</v>
+        <v>35985</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1040,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1781.071282051282</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1782</v>
+        <v>23155</v>
       </c>
     </row>
     <row r="30">
@@ -1150,10 +1061,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2564.048</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2565</v>
+        <v>51282</v>
       </c>
     </row>
     <row r="31">
@@ -1174,10 +1082,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2157.571904761905</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2158</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="32">
@@ -1198,10 +1103,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2099.716</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2100</v>
+        <v>31496</v>
       </c>
     </row>
     <row r="33">
@@ -1222,10 +1124,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2558.929925925926</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2559</v>
+        <v>38385</v>
       </c>
     </row>
     <row r="34">
@@ -1246,10 +1145,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1810.427222222222</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1811</v>
+        <v>18105</v>
       </c>
     </row>
     <row r="35">
@@ -1270,10 +1166,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2124.577192982457</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2125</v>
+        <v>40367</v>
       </c>
     </row>
     <row r="36">
@@ -1294,10 +1187,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1708.881746031746</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1709</v>
+        <v>23925</v>
       </c>
     </row>
     <row r="37">
@@ -1318,10 +1208,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1960.914126984127</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1961</v>
+        <v>27454</v>
       </c>
     </row>
     <row r="38">
@@ -1342,10 +1229,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2352.734222222223</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2353</v>
+        <v>35292</v>
       </c>
     </row>
     <row r="39">
@@ -1366,10 +1250,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2292.903194444445</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2293</v>
+        <v>36688</v>
       </c>
     </row>
     <row r="40">
@@ -1390,10 +1271,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1633.194285714286</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1634</v>
+        <v>22866</v>
       </c>
     </row>
     <row r="41">
@@ -1414,10 +1292,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2139.193641975309</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2140</v>
+        <v>38506</v>
       </c>
     </row>
     <row r="42">
@@ -1438,10 +1313,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1486.15522875817</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1487</v>
+        <v>25266</v>
       </c>
     </row>
     <row r="43">
@@ -1462,10 +1334,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1735.511833333333</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1736</v>
+        <v>34711</v>
       </c>
     </row>
     <row r="44">
@@ -1486,10 +1355,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2147.297613168724</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2148</v>
+        <v>57978</v>
       </c>
     </row>
     <row r="45">
@@ -1510,10 +1376,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1865.782098765432</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1866</v>
+        <v>33585</v>
       </c>
     </row>
     <row r="46">
@@ -1534,10 +1397,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1945.154197530864</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1946</v>
+        <v>35014</v>
       </c>
     </row>
     <row r="47">
@@ -1558,10 +1418,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1244.649305555556</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1245</v>
+        <v>19916</v>
       </c>
     </row>
     <row r="48">
@@ -1582,10 +1439,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2410.135625</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2411</v>
+        <v>38563</v>
       </c>
     </row>
     <row r="49">
@@ -1606,10 +1460,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>661.4660784313726</v>
-      </c>
-      <c r="F49" t="n">
-        <v>662</v>
+        <v>11246</v>
       </c>
     </row>
     <row r="50">
@@ -1630,10 +1481,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>722.5368888888888</v>
-      </c>
-      <c r="F50" t="n">
-        <v>723</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="51">
@@ -1654,10 +1502,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1942.652986111111</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1943</v>
+        <v>31084</v>
       </c>
     </row>
     <row r="52">
@@ -1678,10 +1523,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2362.164393939394</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2363</v>
+        <v>51968</v>
       </c>
     </row>
     <row r="53">
@@ -1702,10 +1544,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2086.157530864198</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2087</v>
+        <v>37552</v>
       </c>
     </row>
     <row r="54">
@@ -1726,10 +1565,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2028.400427350427</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2029</v>
+        <v>26371</v>
       </c>
     </row>
     <row r="55">
@@ -1750,10 +1586,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2312.963777777777</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2313</v>
+        <v>46260</v>
       </c>
     </row>
     <row r="56">
@@ -1774,10 +1607,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1737.832804232804</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1738</v>
+        <v>36496</v>
       </c>
     </row>
     <row r="57">
@@ -1798,10 +1628,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2035.880370370371</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2036</v>
+        <v>30539</v>
       </c>
     </row>
     <row r="58">
@@ -1822,10 +1649,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2338.877185185185</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2339</v>
+        <v>35084</v>
       </c>
     </row>
     <row r="59">
@@ -1846,10 +1670,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2059.426555555555</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2060</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="60">
@@ -1870,10 +1691,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2785.821345029239</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2786</v>
+        <v>52932</v>
       </c>
     </row>
     <row r="61">
@@ -1894,10 +1712,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2079.995476190476</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2080</v>
+        <v>29121</v>
       </c>
     </row>
     <row r="62">
@@ -1918,10 +1733,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1930.358492063492</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1931</v>
+        <v>27026</v>
       </c>
     </row>
     <row r="63">
@@ -1942,10 +1754,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2066.742962962963</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2067</v>
+        <v>31002</v>
       </c>
     </row>
     <row r="64">
@@ -1966,10 +1775,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2001.417083333334</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2002</v>
+        <v>32024</v>
       </c>
     </row>
     <row r="65">
@@ -1990,10 +1796,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1806.175</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1807</v>
+        <v>25288</v>
       </c>
     </row>
     <row r="66">
@@ -2014,10 +1817,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2182.456790123457</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2183</v>
+        <v>39285</v>
       </c>
     </row>
     <row r="67">
@@ -2038,10 +1838,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1413.65339869281</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1414</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="68">
@@ -2062,10 +1859,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1885.172222222222</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1886</v>
+        <v>37704</v>
       </c>
     </row>
     <row r="69">
@@ -2086,10 +1880,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2174.267736625514</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2175</v>
+        <v>58706</v>
       </c>
     </row>
     <row r="70">
@@ -2110,10 +1901,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2539.466111111111</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2540</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="71">
@@ -2134,10 +1922,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1799.08524691358</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1800</v>
+        <v>32384</v>
       </c>
     </row>
     <row r="72">
@@ -2158,10 +1943,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1198.577847222222</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1199</v>
+        <v>19179</v>
       </c>
     </row>
     <row r="73">
@@ -2182,10 +1964,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2554.508958333333</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2555</v>
+        <v>40873</v>
       </c>
     </row>
     <row r="74">
@@ -2206,10 +1985,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>787.0582352941176</v>
-      </c>
-      <c r="F74" t="n">
-        <v>788</v>
+        <v>13381</v>
       </c>
     </row>
     <row r="75">
@@ -2230,10 +2006,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>704.2777037037038</v>
-      </c>
-      <c r="F75" t="n">
-        <v>705</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="76">
@@ -2254,10 +2027,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2042.807430555556</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2043</v>
+        <v>32685</v>
       </c>
     </row>
     <row r="77">
@@ -2278,10 +2048,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1930.523484848485</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1931</v>
+        <v>42473</v>
       </c>
     </row>
     <row r="78">
@@ -2302,10 +2069,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2258.127345679013</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2259</v>
+        <v>40647</v>
       </c>
     </row>
     <row r="79">
@@ -2326,10 +2090,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2138.097692307692</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2139</v>
+        <v>27797</v>
       </c>
     </row>
     <row r="80">
@@ -2350,10 +2111,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2434.217277777778</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2435</v>
+        <v>48686</v>
       </c>
     </row>
     <row r="81">
@@ -2374,10 +2132,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1888.060476190476</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1889</v>
+        <v>39650</v>
       </c>
     </row>
     <row r="82">
@@ -2398,10 +2153,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2012.223481481481</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2013</v>
+        <v>30184</v>
       </c>
     </row>
     <row r="83">
@@ -2422,10 +2174,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2570.029555555555</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2571</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="84">
@@ -2446,10 +2195,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2333.462111111112</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2334</v>
+        <v>23336</v>
       </c>
     </row>
     <row r="85">
@@ -2470,10 +2216,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2454.93052631579</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2455</v>
+        <v>46644</v>
       </c>
     </row>
     <row r="86">
@@ -2494,10 +2237,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2229.14492063492</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2230</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="87">
@@ -2518,10 +2258,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2052.996111111111</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2053</v>
+        <v>28743</v>
       </c>
     </row>
     <row r="88">
@@ -2542,10 +2279,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2184.143111111111</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2185</v>
+        <v>32763</v>
       </c>
     </row>
     <row r="89">
@@ -2566,10 +2300,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1754.002013888889</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1755</v>
+        <v>28065</v>
       </c>
     </row>
     <row r="90">
@@ -2590,10 +2321,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1746.619761904762</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1747</v>
+        <v>24454</v>
       </c>
     </row>
     <row r="91">
@@ -2614,10 +2342,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1780.294444444445</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1781</v>
+        <v>32046</v>
       </c>
     </row>
     <row r="92">
@@ -2638,10 +2363,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1406.874379084967</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1407</v>
+        <v>23918</v>
       </c>
     </row>
     <row r="93">
@@ -2662,10 +2384,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1789.381555555556</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1790</v>
+        <v>35789</v>
       </c>
     </row>
     <row r="94">
@@ -2686,10 +2405,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2055.488600823045</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2056</v>
+        <v>55499</v>
       </c>
     </row>
     <row r="95">
@@ -2710,10 +2426,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2197.263024691358</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2198</v>
+        <v>39552</v>
       </c>
     </row>
     <row r="96">
@@ -2734,10 +2447,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1997.446049382716</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1998</v>
+        <v>35955</v>
       </c>
     </row>
     <row r="97">
@@ -2758,10 +2468,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1142.189861111111</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1143</v>
+        <v>18276</v>
       </c>
     </row>
     <row r="98">
@@ -2782,10 +2489,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2493.943333333333</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2494</v>
+        <v>39904</v>
       </c>
     </row>
     <row r="99">
@@ -2806,10 +2510,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>783.102614379085</v>
-      </c>
-      <c r="F99" t="n">
-        <v>784</v>
+        <v>13314</v>
       </c>
     </row>
     <row r="100">
@@ -2830,10 +2531,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>758.4011851851851</v>
-      </c>
-      <c r="F100" t="n">
-        <v>759</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="101">
@@ -2854,10 +2552,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2273.985694444445</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2274</v>
+        <v>36384</v>
       </c>
     </row>
     <row r="102">
@@ -2878,10 +2573,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1291.696111111111</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1292</v>
+        <v>28418</v>
       </c>
     </row>
     <row r="103">
@@ -2902,10 +2594,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1410.409197530864</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1411</v>
+        <v>25388</v>
       </c>
     </row>
     <row r="104">
@@ -2926,10 +2615,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1639.972136752137</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1640</v>
+        <v>21321</v>
       </c>
     </row>
     <row r="105">
@@ -2950,10 +2636,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1565.898666666666</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1566</v>
+        <v>31319</v>
       </c>
     </row>
     <row r="106">
@@ -2974,10 +2657,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1402.790687830688</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1403</v>
+        <v>29460</v>
       </c>
     </row>
     <row r="107">
@@ -2998,10 +2678,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1209.06637037037</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1210</v>
+        <v>18137</v>
       </c>
     </row>
     <row r="108">
@@ -3022,10 +2699,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1729.236888888889</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1730</v>
+        <v>25940</v>
       </c>
     </row>
     <row r="109">
@@ -3046,10 +2720,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1463.546333333333</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1464</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="110">
@@ -3070,10 +2741,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1489.710116959064</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1490</v>
+        <v>28305</v>
       </c>
     </row>
     <row r="111">
@@ -3094,10 +2762,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1394.158412698413</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1395</v>
+        <v>19519</v>
       </c>
     </row>
     <row r="112">
@@ -3118,10 +2783,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1486.403412698413</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1487</v>
+        <v>20810</v>
       </c>
     </row>
     <row r="113">
@@ -3142,10 +2804,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1529.646148148148</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1530</v>
+        <v>22945</v>
       </c>
     </row>
     <row r="114">
@@ -3166,10 +2825,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1179.122708333333</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1180</v>
+        <v>18867</v>
       </c>
     </row>
     <row r="115">
@@ -3190,10 +2846,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1231.165873015873</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1232</v>
+        <v>17237</v>
       </c>
     </row>
     <row r="116">
@@ -3214,10 +2867,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1231.486234567901</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1232</v>
+        <v>22168</v>
       </c>
     </row>
     <row r="117">
@@ -3238,10 +2888,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>908.5371241830067</v>
-      </c>
-      <c r="F117" t="n">
-        <v>909</v>
+        <v>15447</v>
       </c>
     </row>
     <row r="118">
@@ -3262,10 +2909,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1241.893055555556</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1242</v>
+        <v>24838</v>
       </c>
     </row>
     <row r="119">
@@ -3286,10 +2930,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1285.251111111111</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1286</v>
+        <v>34703</v>
       </c>
     </row>
     <row r="120">
@@ -3310,10 +2951,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1273.068950617284</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1274</v>
+        <v>22916</v>
       </c>
     </row>
     <row r="121">
@@ -3334,10 +2972,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1290.876975308642</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1291</v>
+        <v>23236</v>
       </c>
     </row>
     <row r="122">
@@ -3358,10 +2993,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>783.3866666666668</v>
-      </c>
-      <c r="F122" t="n">
-        <v>784</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="123">
@@ -3382,10 +3014,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1748.312083333333</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1749</v>
+        <v>27974</v>
       </c>
     </row>
     <row r="124">
@@ -3406,10 +3035,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>517.8744444444444</v>
-      </c>
-      <c r="F124" t="n">
-        <v>518</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="125">
@@ -3430,10 +3056,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>525.8448888888888</v>
-      </c>
-      <c r="F125" t="n">
-        <v>526</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="126">
@@ -3454,10 +3077,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1463.948888888889</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1464</v>
+        <v>23424</v>
       </c>
     </row>
     <row r="127">
@@ -3478,10 +3098,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>880.2260606060607</v>
-      </c>
-      <c r="F127" t="n">
-        <v>881</v>
+        <v>19366</v>
       </c>
     </row>
     <row r="128">
@@ -3502,10 +3119,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>962.147962962963</v>
-      </c>
-      <c r="F128" t="n">
-        <v>963</v>
+        <v>17319</v>
       </c>
     </row>
     <row r="129">
@@ -3526,10 +3140,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1444.852905982906</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1445</v>
+        <v>18784</v>
       </c>
     </row>
     <row r="130">
@@ -3550,10 +3161,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1201.440666666667</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1202</v>
+        <v>24030</v>
       </c>
     </row>
     <row r="131">
@@ -3574,10 +3182,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1036.167195767196</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1037</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="132">
@@ -3598,10 +3203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>929.7160000000001</v>
-      </c>
-      <c r="F132" t="n">
-        <v>930</v>
+        <v>13947</v>
       </c>
     </row>
     <row r="133">
@@ -3622,10 +3224,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1215.980666666667</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1216</v>
+        <v>18241</v>
       </c>
     </row>
     <row r="134">
@@ -3646,10 +3245,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1086.354444444444</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1087</v>
+        <v>10865</v>
       </c>
     </row>
     <row r="135">
@@ -3670,10 +3266,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1412.941695906433</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1413</v>
+        <v>26847</v>
       </c>
     </row>
     <row r="136">
@@ -3694,10 +3287,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1273.327619047619</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1274</v>
+        <v>17828</v>
       </c>
     </row>
     <row r="137">
@@ -3718,10 +3308,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1332.423333333333</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1333</v>
+        <v>18654</v>
       </c>
     </row>
     <row r="138">
@@ -3742,10 +3329,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1239.249777777778</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1240</v>
+        <v>18590</v>
       </c>
     </row>
     <row r="139">
@@ -3766,10 +3350,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1129.006388888889</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1130</v>
+        <v>18065</v>
       </c>
     </row>
     <row r="140">
@@ -3790,10 +3371,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1248.168888888889</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1249</v>
+        <v>17476</v>
       </c>
     </row>
     <row r="141">
@@ -3814,10 +3392,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>862.2706790123457</v>
-      </c>
-      <c r="F141" t="n">
-        <v>863</v>
+        <v>15522</v>
       </c>
     </row>
     <row r="142">
@@ -3838,10 +3413,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>818.7120915032679</v>
-      </c>
-      <c r="F142" t="n">
-        <v>819</v>
+        <v>13919</v>
       </c>
     </row>
     <row r="143">
@@ -3862,10 +3434,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1143.233388888889</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1144</v>
+        <v>22866</v>
       </c>
     </row>
     <row r="144">
@@ -3886,10 +3455,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>863.5244444444445</v>
-      </c>
-      <c r="F144" t="n">
-        <v>864</v>
+        <v>23316</v>
       </c>
     </row>
     <row r="145">
@@ -3910,10 +3476,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>991.1699382716049</v>
-      </c>
-      <c r="F145" t="n">
-        <v>992</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="146">
@@ -3934,10 +3497,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>996.3831481481481</v>
-      </c>
-      <c r="F146" t="n">
-        <v>997</v>
+        <v>17936</v>
       </c>
     </row>
     <row r="147">
@@ -3958,10 +3518,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>796.3608333333334</v>
-      </c>
-      <c r="F147" t="n">
-        <v>797</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="148">
@@ -3982,10 +3539,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1551.03625</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1552</v>
+        <v>24817</v>
       </c>
     </row>
     <row r="149">
@@ -4006,10 +3560,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>525.8434640522876</v>
-      </c>
-      <c r="F149" t="n">
-        <v>526</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="150">
@@ -4030,10 +3581,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>476.044</v>
-      </c>
-      <c r="F150" t="n">
-        <v>477</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="151">
@@ -4054,10 +3602,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1191.898958333333</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1192</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="152">
@@ -4078,10 +3623,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1625.644444444444</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1626</v>
+        <v>35765</v>
       </c>
     </row>
     <row r="153">
@@ -4102,10 +3644,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1712.061666666667</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1713</v>
+        <v>30818</v>
       </c>
     </row>
     <row r="154">
@@ -4126,10 +3665,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1624.633162393162</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1625</v>
+        <v>21121</v>
       </c>
     </row>
     <row r="155">
@@ -4150,10 +3686,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1935.204222222222</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1936</v>
+        <v>38705</v>
       </c>
     </row>
     <row r="156">
@@ -4174,10 +3707,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2437.122116402116</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2438</v>
+        <v>51180</v>
       </c>
     </row>
     <row r="157">
@@ -4198,10 +3728,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2147.221851851853</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2148</v>
+        <v>32209</v>
       </c>
     </row>
     <row r="158">
@@ -4222,10 +3749,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1945.652222222222</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1946</v>
+        <v>29186</v>
       </c>
     </row>
     <row r="159">
@@ -4246,10 +3770,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1889.747111111111</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1890</v>
+        <v>18898</v>
       </c>
     </row>
     <row r="160">
@@ -4270,10 +3791,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2106.879064327485</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2107</v>
+        <v>40032</v>
       </c>
     </row>
     <row r="161">
@@ -4294,10 +3812,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1655.873015873016</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1656</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="162">
@@ -4318,10 +3833,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2333.384523809523</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2334</v>
+        <v>32668</v>
       </c>
     </row>
     <row r="163">
@@ -4342,10 +3854,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2342.908222222222</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2343</v>
+        <v>35145</v>
       </c>
     </row>
     <row r="164">
@@ -4366,10 +3875,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1785.864236111111</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1786</v>
+        <v>28575</v>
       </c>
     </row>
     <row r="165">
@@ -4390,10 +3896,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1865.827936507937</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1866</v>
+        <v>26123</v>
       </c>
     </row>
     <row r="166">
@@ -4414,10 +3917,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1449.066049382716</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1450</v>
+        <v>26084</v>
       </c>
     </row>
     <row r="167">
@@ -4438,10 +3938,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1402.043464052288</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1403</v>
+        <v>23836</v>
       </c>
     </row>
     <row r="168">
@@ -4462,10 +3959,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1790.545666666667</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1791</v>
+        <v>35812</v>
       </c>
     </row>
     <row r="169">
@@ -4486,10 +3980,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1624.699794238683</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1625</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="170">
@@ -4510,10 +4001,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1697.785679012346</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1698</v>
+        <v>30561</v>
       </c>
     </row>
     <row r="171">
@@ -4534,10 +4022,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1566.740802469136</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1567</v>
+        <v>28203</v>
       </c>
     </row>
     <row r="172">
@@ -4558,10 +4043,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>963.4890972222222</v>
-      </c>
-      <c r="F172" t="n">
-        <v>964</v>
+        <v>15417</v>
       </c>
     </row>
     <row r="173">
@@ -4582,10 +4064,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1895.520763888889</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1896</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="174">
@@ -4606,10 +4085,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>839.6193464052288</v>
-      </c>
-      <c r="F174" t="n">
-        <v>840</v>
+        <v>14275</v>
       </c>
     </row>
     <row r="175">
@@ -4630,10 +4106,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>675.357185185185</v>
-      </c>
-      <c r="F175" t="n">
-        <v>676</v>
+        <v>10132</v>
       </c>
     </row>
     <row r="176">
@@ -4654,10 +4127,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1786.691458333333</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1787</v>
+        <v>28588</v>
       </c>
     </row>
     <row r="177">
@@ -4678,10 +4148,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2017.489747474747</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2018</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="178">
@@ -4702,10 +4169,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2040.182345679012</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2041</v>
+        <v>36724</v>
       </c>
     </row>
     <row r="179">
@@ -4726,10 +4190,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1935.518547008547</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1936</v>
+        <v>25162</v>
       </c>
     </row>
     <row r="180">
@@ -4750,10 +4211,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2641.170111111111</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2642</v>
+        <v>52824</v>
       </c>
     </row>
     <row r="181">
@@ -4774,10 +4232,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2591.888783068783</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2592</v>
+        <v>54431</v>
       </c>
     </row>
     <row r="182">
@@ -4798,10 +4253,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2162.298148148148</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2163</v>
+        <v>32435</v>
       </c>
     </row>
     <row r="183">
@@ -4822,10 +4274,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2753.222444444444</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2754</v>
+        <v>41299</v>
       </c>
     </row>
     <row r="184">
@@ -4846,10 +4295,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2207.362222222222</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2208</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="185">
@@ -4870,10 +4316,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2102.910526315789</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2103</v>
+        <v>39956</v>
       </c>
     </row>
     <row r="186">
@@ -4894,10 +4337,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1768.543888888889</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1769</v>
+        <v>24761</v>
       </c>
     </row>
     <row r="187">
@@ -4918,10 +4358,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2118.508095238095</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2119</v>
+        <v>29660</v>
       </c>
     </row>
     <row r="188">
@@ -4942,10 +4379,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2484.374666666667</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2485</v>
+        <v>37266</v>
       </c>
     </row>
     <row r="189">
@@ -4966,10 +4400,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2188.226736111111</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2189</v>
+        <v>35012</v>
       </c>
     </row>
     <row r="190">
@@ -4990,10 +4421,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1655.772222222222</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1656</v>
+        <v>23182</v>
       </c>
     </row>
     <row r="191">
@@ -5014,10 +4442,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1863.131481481482</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1864</v>
+        <v>33537</v>
       </c>
     </row>
     <row r="192">
@@ -5038,10 +4463,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1531.642745098039</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1532</v>
+        <v>26039</v>
       </c>
     </row>
     <row r="193">
@@ -5062,10 +4484,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1738.614833333334</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1739</v>
+        <v>34773</v>
       </c>
     </row>
     <row r="194">
@@ -5086,10 +4505,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2031.448518518518</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2032</v>
+        <v>54850</v>
       </c>
     </row>
     <row r="195">
@@ -5110,10 +4526,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1833.324197530864</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1834</v>
+        <v>33001</v>
       </c>
     </row>
     <row r="196">
@@ -5134,10 +4547,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2119.536111111111</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2120</v>
+        <v>38153</v>
       </c>
     </row>
     <row r="197">
@@ -5158,10 +4568,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1253.704722222222</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1254</v>
+        <v>20061</v>
       </c>
     </row>
     <row r="198">
@@ -5182,10 +4589,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2431.282986111111</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2432</v>
+        <v>38902</v>
       </c>
     </row>
     <row r="199">
@@ -5206,10 +4610,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>705.7905882352941</v>
-      </c>
-      <c r="F199" t="n">
-        <v>706</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="200">
@@ -5230,10 +4631,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>795.0002222222222</v>
-      </c>
-      <c r="F200" t="n">
-        <v>796</v>
+        <v>11926</v>
       </c>
     </row>
     <row r="201">
@@ -5254,10 +4652,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2113.238958333333</v>
-      </c>
-      <c r="F201" t="n">
-        <v>2114</v>
+        <v>33813</v>
       </c>
     </row>
     <row r="202">
@@ -5278,10 +4673,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2092.868838383839</v>
-      </c>
-      <c r="F202" t="n">
-        <v>2093</v>
+        <v>46044</v>
       </c>
     </row>
     <row r="203">
@@ -5302,10 +4694,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2046.367098765432</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2047</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="204">
@@ -5326,10 +4715,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2049.768717948718</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2050</v>
+        <v>26648</v>
       </c>
     </row>
     <row r="205">
@@ -5350,10 +4736,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2285.532222222222</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2286</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="206">
@@ -5374,10 +4757,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1955.003756613757</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1956</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="207">
@@ -5398,10 +4778,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1977.646296296296</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1978</v>
+        <v>29666</v>
       </c>
     </row>
     <row r="208">
@@ -5422,10 +4799,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2560.725555555555</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2561</v>
+        <v>38412</v>
       </c>
     </row>
     <row r="209">
@@ -5446,10 +4820,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2221.481444444444</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2222</v>
+        <v>22216</v>
       </c>
     </row>
     <row r="210">
@@ -5470,10 +4841,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2566.646608187134</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2567</v>
+        <v>48767</v>
       </c>
     </row>
     <row r="211">
@@ -5494,10 +4862,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1963.921746031746</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1964</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="212">
@@ -5518,10 +4883,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2057.053095238096</v>
-      </c>
-      <c r="F212" t="n">
-        <v>2058</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="213">
@@ -5542,10 +4904,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2107.400296296296</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2108</v>
+        <v>31612</v>
       </c>
     </row>
     <row r="214">
@@ -5566,10 +4925,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2010.114305555556</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2011</v>
+        <v>32163</v>
       </c>
     </row>
     <row r="215">
@@ -5590,10 +4946,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1776.686349206349</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1777</v>
+        <v>24874</v>
       </c>
     </row>
     <row r="216">
@@ -5614,10 +4967,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2047.451666666667</v>
-      </c>
-      <c r="F216" t="n">
-        <v>2048</v>
+        <v>36855</v>
       </c>
     </row>
     <row r="217">
@@ -5638,10 +4988,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1473.253529411765</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1474</v>
+        <v>25047</v>
       </c>
     </row>
     <row r="218">
@@ -5662,10 +5009,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1920.11438888889</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1921</v>
+        <v>38403</v>
       </c>
     </row>
     <row r="219">
@@ -5686,10 +5030,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2091.8129218107</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2092</v>
+        <v>56480</v>
       </c>
     </row>
     <row r="220">
@@ -5710,10 +5051,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2325.836234567901</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2326</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="221">
@@ -5734,10 +5072,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1975.505925925926</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1976</v>
+        <v>35560</v>
       </c>
     </row>
     <row r="222">
@@ -5758,10 +5093,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1230.136736111111</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1231</v>
+        <v>19683</v>
       </c>
     </row>
     <row r="223">
@@ -5782,10 +5114,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2525.949791666666</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2526</v>
+        <v>40416</v>
       </c>
     </row>
     <row r="224">
@@ -5806,10 +5135,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>765.1586274509805</v>
-      </c>
-      <c r="F224" t="n">
-        <v>766</v>
+        <v>13009</v>
       </c>
     </row>
     <row r="225">
@@ -5830,10 +5156,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>757.3285185185184</v>
-      </c>
-      <c r="F225" t="n">
-        <v>758</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="226">
@@ -5854,10 +5177,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2065.131527777778</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2066</v>
+        <v>33043</v>
       </c>
     </row>
     <row r="227">
@@ -5878,10 +5198,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1798.038232323232</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1799</v>
+        <v>39558</v>
       </c>
     </row>
     <row r="228">
@@ -5902,10 +5219,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2056.311543209877</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2057</v>
+        <v>37014</v>
       </c>
     </row>
     <row r="229">
@@ -5926,10 +5240,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1962.457094017094</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1963</v>
+        <v>25513</v>
       </c>
     </row>
     <row r="230">
@@ -5950,10 +5261,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2175.506722222222</v>
-      </c>
-      <c r="F230" t="n">
-        <v>2176</v>
+        <v>43511</v>
       </c>
     </row>
     <row r="231">
@@ -5974,10 +5282,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1718.675661375661</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1719</v>
+        <v>36094</v>
       </c>
     </row>
     <row r="232">
@@ -5998,10 +5303,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1895.508666666667</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1896</v>
+        <v>28433</v>
       </c>
     </row>
     <row r="233">
@@ -6022,10 +5324,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2464.731481481481</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2465</v>
+        <v>36972</v>
       </c>
     </row>
     <row r="234">
@@ -6046,10 +5345,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2375.622888888889</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2376</v>
+        <v>23758</v>
       </c>
     </row>
     <row r="235">
@@ -6070,10 +5366,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2302.173450292397</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2303</v>
+        <v>43742</v>
       </c>
     </row>
     <row r="236">
@@ -6094,10 +5387,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2020.252857142857</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2021</v>
+        <v>28285</v>
       </c>
     </row>
     <row r="237">
@@ -6118,10 +5408,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1968.255476190476</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1969</v>
+        <v>27556</v>
       </c>
     </row>
     <row r="238">
@@ -6142,10 +5429,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1934.094518518519</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1935</v>
+        <v>29012</v>
       </c>
     </row>
     <row r="239">
@@ -6166,10 +5450,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1607.898055555556</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1608</v>
+        <v>25727</v>
       </c>
     </row>
     <row r="240">
@@ -6190,10 +5471,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1627.218492063492</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1628</v>
+        <v>22782</v>
       </c>
     </row>
     <row r="241">
@@ -6214,10 +5492,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1623.54462962963</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1624</v>
+        <v>29225</v>
       </c>
     </row>
     <row r="242">
@@ -6238,10 +5513,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1383.229346405229</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1384</v>
+        <v>23515</v>
       </c>
     </row>
     <row r="243">
@@ -6262,10 +5534,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1640.431222222222</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1641</v>
+        <v>32810</v>
       </c>
     </row>
     <row r="244">
@@ -6286,10 +5555,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1903.794156378601</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1904</v>
+        <v>51404</v>
       </c>
     </row>
     <row r="245">
@@ -6310,10 +5576,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2165.014938271605</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2166</v>
+        <v>38972</v>
       </c>
     </row>
     <row r="246">
@@ -6334,10 +5597,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1969.415987654321</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1970</v>
+        <v>35450</v>
       </c>
     </row>
     <row r="247">
@@ -6358,10 +5618,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1076.267152777778</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1077</v>
+        <v>17222</v>
       </c>
     </row>
     <row r="248">
@@ -6382,10 +5639,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2263.210069444444</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2264</v>
+        <v>36213</v>
       </c>
     </row>
     <row r="249">
@@ -6406,10 +5660,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>760.2009150326796</v>
-      </c>
-      <c r="F249" t="n">
-        <v>761</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="250">
@@ -6430,10 +5681,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>719.4995555555555</v>
-      </c>
-      <c r="F250" t="n">
-        <v>720</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="251">
@@ -6454,10 +5702,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2182.227013888889</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2183</v>
+        <v>34916</v>
       </c>
     </row>
     <row r="252">
@@ -6478,10 +5723,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1116.617626262626</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1117</v>
+        <v>24566</v>
       </c>
     </row>
     <row r="253">
@@ -6502,10 +5744,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1356.406851851852</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1357</v>
+        <v>24416</v>
       </c>
     </row>
     <row r="254">
@@ -6526,10 +5765,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1353.834871794872</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1354</v>
+        <v>17601</v>
       </c>
     </row>
     <row r="255">
@@ -6550,10 +5786,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1441.655833333333</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1442</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="256">
@@ -6574,10 +5807,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1206.074656084656</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1207</v>
+        <v>25328</v>
       </c>
     </row>
     <row r="257">
@@ -6598,10 +5828,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1113.562074074074</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1114</v>
+        <v>16705</v>
       </c>
     </row>
     <row r="258">
@@ -6622,10 +5849,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1664.482296296296</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1665</v>
+        <v>24968</v>
       </c>
     </row>
     <row r="259">
@@ -6646,10 +5870,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1414.838111111111</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1415</v>
+        <v>14150</v>
       </c>
     </row>
     <row r="260">
@@ -6670,10 +5891,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1322.192222222222</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1323</v>
+        <v>25123</v>
       </c>
     </row>
     <row r="261">
@@ -6694,10 +5912,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1322.916111111111</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1323</v>
+        <v>18522</v>
       </c>
     </row>
     <row r="262">
@@ -6718,10 +5933,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1342.567063492063</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1343</v>
+        <v>18797</v>
       </c>
     </row>
     <row r="263">
@@ -6742,10 +5954,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1316.35237037037</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1317</v>
+        <v>19747</v>
       </c>
     </row>
     <row r="264">
@@ -6766,10 +5975,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>975.670763888889</v>
-      </c>
-      <c r="F264" t="n">
-        <v>976</v>
+        <v>15612</v>
       </c>
     </row>
     <row r="265">
@@ -6790,10 +5996,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1038.13873015873</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1039</v>
+        <v>14535</v>
       </c>
     </row>
     <row r="266">
@@ -6814,10 +6017,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1075.956419753086</v>
-      </c>
-      <c r="F266" t="n">
-        <v>1076</v>
+        <v>19368</v>
       </c>
     </row>
     <row r="267">
@@ -6838,10 +6038,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>836.706339869281</v>
-      </c>
-      <c r="F267" t="n">
-        <v>837</v>
+        <v>14225</v>
       </c>
     </row>
     <row r="268">
@@ -6862,10 +6059,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1087.151</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1088</v>
+        <v>21744</v>
       </c>
     </row>
     <row r="269">
@@ -6886,10 +6080,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1245.201399176955</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1246</v>
+        <v>33622</v>
       </c>
     </row>
     <row r="270">
@@ -6910,10 +6101,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1238.683641975309</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1239</v>
+        <v>22297</v>
       </c>
     </row>
     <row r="271">
@@ -6934,10 +6122,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1223.64475308642</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1224</v>
+        <v>22027</v>
       </c>
     </row>
     <row r="272">
@@ -6958,10 +6143,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>672.4890277777777</v>
-      </c>
-      <c r="F272" t="n">
-        <v>673</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="273">
@@ -6982,10 +6164,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1513.080694444444</v>
-      </c>
-      <c r="F273" t="n">
-        <v>1514</v>
+        <v>24210</v>
       </c>
     </row>
     <row r="274">
@@ -7006,10 +6185,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>467.1609150326797</v>
-      </c>
-      <c r="F274" t="n">
-        <v>468</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="275">
@@ -7030,10 +6206,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>466.6087407407407</v>
-      </c>
-      <c r="F275" t="n">
-        <v>467</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="276">
@@ -7054,10 +6227,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1369.212777777778</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1370</v>
+        <v>21908</v>
       </c>
     </row>
     <row r="277">
@@ -7078,10 +6248,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>713.284797979798</v>
-      </c>
-      <c r="F277" t="n">
-        <v>714</v>
+        <v>15693</v>
       </c>
     </row>
     <row r="278">
@@ -7102,10 +6269,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>730.3880246913581</v>
-      </c>
-      <c r="F278" t="n">
-        <v>731</v>
+        <v>13148</v>
       </c>
     </row>
     <row r="279">
@@ -7126,10 +6290,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1067.166324786325</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1068</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="280">
@@ -7150,10 +6311,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>826.3241111111111</v>
-      </c>
-      <c r="F280" t="n">
-        <v>827</v>
+        <v>16528</v>
       </c>
     </row>
     <row r="281">
@@ -7174,10 +6332,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>815.0158730158731</v>
-      </c>
-      <c r="F281" t="n">
-        <v>816</v>
+        <v>17116</v>
       </c>
     </row>
     <row r="282">
@@ -7198,10 +6353,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>705.1538518518518</v>
-      </c>
-      <c r="F282" t="n">
-        <v>706</v>
+        <v>10578</v>
       </c>
     </row>
     <row r="283">
@@ -7222,10 +6374,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>939.7166666666667</v>
-      </c>
-      <c r="F283" t="n">
-        <v>940</v>
+        <v>14096</v>
       </c>
     </row>
     <row r="284">
@@ -7246,10 +6395,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>799.5906666666667</v>
-      </c>
-      <c r="F284" t="n">
-        <v>800</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="285">
@@ -7270,10 +6416,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>893.6715789473686</v>
-      </c>
-      <c r="F285" t="n">
-        <v>894</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="286">
@@ -7294,10 +6437,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>932.2119047619047</v>
-      </c>
-      <c r="F286" t="n">
-        <v>933</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="287">
@@ -7318,10 +6458,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>987.1580158730158</v>
-      </c>
-      <c r="F287" t="n">
-        <v>988</v>
+        <v>13821</v>
       </c>
     </row>
     <row r="288">
@@ -7342,10 +6479,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>943.3562222222222</v>
-      </c>
-      <c r="F288" t="n">
-        <v>944</v>
+        <v>14151</v>
       </c>
     </row>
     <row r="289">
@@ -7366,10 +6500,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>792.659375</v>
-      </c>
-      <c r="F289" t="n">
-        <v>793</v>
+        <v>12684</v>
       </c>
     </row>
     <row r="290">
@@ -7390,10 +6521,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>878.4741269841271</v>
-      </c>
-      <c r="F290" t="n">
-        <v>879</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="291">
@@ -7414,10 +6542,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>712.6384567901234</v>
-      </c>
-      <c r="F291" t="n">
-        <v>713</v>
+        <v>12829</v>
       </c>
     </row>
     <row r="292">
@@ -7438,10 +6563,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>574.2496078431373</v>
-      </c>
-      <c r="F292" t="n">
-        <v>575</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="293">
@@ -7462,10 +6584,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>825.4032777777777</v>
-      </c>
-      <c r="F293" t="n">
-        <v>826</v>
+        <v>16509</v>
       </c>
     </row>
     <row r="294">
@@ -7486,10 +6605,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>667.8061728395062</v>
-      </c>
-      <c r="F294" t="n">
-        <v>668</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="295">
@@ -7510,10 +6626,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>694.7172839506175</v>
-      </c>
-      <c r="F295" t="n">
-        <v>695</v>
+        <v>12506</v>
       </c>
     </row>
     <row r="296">
@@ -7534,10 +6647,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>745.9551851851853</v>
-      </c>
-      <c r="F296" t="n">
-        <v>746</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="297">
@@ -7558,10 +6668,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>546.9659722222223</v>
-      </c>
-      <c r="F297" t="n">
-        <v>547</v>
+        <v>8752</v>
       </c>
     </row>
     <row r="298">
@@ -7582,10 +6689,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1144.637013888889</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1145</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="299">
@@ -7606,10 +6710,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>372.429477124183</v>
-      </c>
-      <c r="F299" t="n">
-        <v>373</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="300">
@@ -7630,10 +6731,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>323.5372592592592</v>
-      </c>
-      <c r="F300" t="n">
-        <v>324</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="301">
@@ -7654,10 +6752,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>859.1234027777778</v>
-      </c>
-      <c r="F301" t="n">
-        <v>860</v>
+        <v>13747</v>
       </c>
     </row>
   </sheetData>
